--- a/exels/Weapons.xlsx
+++ b/exels/Weapons.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="77">
   <si>
     <t>size</t>
   </si>
@@ -214,6 +214,39 @@
   </si>
   <si>
     <t>Images\\Weapons\\Garlic.png</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>Sound\\weapons\\King Bible.mp3</t>
+  </si>
+  <si>
+    <t>Images\\Weapons\\Magic Wand.png</t>
+  </si>
+  <si>
+    <t>Images\\Icons\\Eight The Sparrow.png</t>
+  </si>
+  <si>
+    <t>Images\\Weapons\\Eight The Sparrow.png</t>
+  </si>
+  <si>
+    <t>Images\\Icons\\Axe.png</t>
+  </si>
+  <si>
+    <t>Images\\Weapons\\Phiera Der Tuphello.png</t>
+  </si>
+  <si>
+    <t>Images\\Icons\\Phiera Der Tuphello.png</t>
+  </si>
+  <si>
+    <t>Images\\Icons\\Clock Lancet.png</t>
+  </si>
+  <si>
+    <t>Images\\Icons\\Cross.png</t>
+  </si>
+  <si>
+    <t>temp</t>
   </si>
 </sst>
 </file>
@@ -552,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y26"/>
+  <dimension ref="A1:AA26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +598,7 @@
     <col min="8" max="8" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -612,37 +645,43 @@
         <v>49</v>
       </c>
       <c r="P1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R1" t="s">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>36</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>37</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>38</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>34</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>39</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -688,26 +727,23 @@
       <c r="O2" t="s">
         <v>50</v>
       </c>
-      <c r="P2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
+      <c r="Q2" t="s">
+        <v>67</v>
       </c>
       <c r="R2" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T2" t="s">
         <v>3</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V2" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W2">
         <v>1</v>
@@ -718,13 +754,19 @@
       <c r="Y2">
         <v>1</v>
       </c>
+      <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C3">
         <v>5</v>
@@ -757,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="N3" t="s">
         <v>44</v>
@@ -766,26 +808,26 @@
         <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
+        <v>68</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>67</v>
       </c>
       <c r="R3" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U3">
+        <v>5</v>
+      </c>
+      <c r="V3" t="s">
         <v>48</v>
       </c>
-      <c r="U3">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>30</v>
-      </c>
       <c r="W3">
         <v>1</v>
       </c>
@@ -795,13 +837,19 @@
       <c r="Y3">
         <v>1</v>
       </c>
+      <c r="Z3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -842,27 +890,24 @@
       <c r="O4" t="s">
         <v>50</v>
       </c>
-      <c r="P4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
+      <c r="Q4" t="s">
+        <v>67</v>
       </c>
       <c r="R4" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T4" t="s">
+        <v>3</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4" t="s">
         <v>48</v>
       </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>30</v>
-      </c>
       <c r="W4">
         <v>1</v>
       </c>
@@ -872,8 +917,14 @@
       <c r="Y4">
         <v>1</v>
       </c>
+      <c r="Z4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -917,29 +968,26 @@
         <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>50</v>
-      </c>
-      <c r="P5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
+        <v>71</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>67</v>
       </c>
       <c r="R5" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S5">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5" t="s">
         <v>48</v>
       </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5" t="s">
-        <v>30</v>
-      </c>
       <c r="W5">
         <v>1</v>
       </c>
@@ -949,8 +997,14 @@
       <c r="Y5">
         <v>1</v>
       </c>
+      <c r="Z5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -994,28 +1048,25 @@
         <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>50</v>
-      </c>
-      <c r="P6" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6">
-        <v>1</v>
+        <v>75</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>67</v>
       </c>
       <c r="R6" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s">
         <v>3</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V6" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1026,8 +1077,14 @@
       <c r="Y6">
         <v>1</v>
       </c>
+      <c r="Z6" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1073,26 +1130,23 @@
       <c r="O7" t="s">
         <v>59</v>
       </c>
-      <c r="P7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7">
-        <v>1</v>
+      <c r="Q7" t="s">
+        <v>67</v>
       </c>
       <c r="R7" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T7" t="s">
         <v>3</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1103,8 +1157,14 @@
       <c r="Y7">
         <v>1</v>
       </c>
+      <c r="Z7" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1150,27 +1210,24 @@
       <c r="O8" t="s">
         <v>50</v>
       </c>
-      <c r="P8" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8">
-        <v>1</v>
+      <c r="Q8" t="s">
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+      <c r="V8" t="s">
         <v>48</v>
       </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8" t="s">
-        <v>30</v>
-      </c>
       <c r="W8">
         <v>1</v>
       </c>
@@ -1180,8 +1237,14 @@
       <c r="Y8">
         <v>1</v>
       </c>
+      <c r="Z8" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1227,26 +1290,23 @@
       <c r="O9" t="s">
         <v>51</v>
       </c>
-      <c r="P9" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9">
-        <v>1</v>
+      <c r="Q9" t="s">
+        <v>67</v>
       </c>
       <c r="R9" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s">
         <v>3</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V9" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -1257,8 +1317,14 @@
       <c r="Y9">
         <v>1</v>
       </c>
+      <c r="Z9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1304,27 +1370,24 @@
       <c r="O10" t="s">
         <v>50</v>
       </c>
-      <c r="P10" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
+      <c r="Q10" t="s">
+        <v>67</v>
       </c>
       <c r="R10" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10">
+        <v>5</v>
+      </c>
+      <c r="V10" t="s">
         <v>48</v>
       </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10" t="s">
-        <v>30</v>
-      </c>
       <c r="W10">
         <v>1</v>
       </c>
@@ -1334,8 +1397,14 @@
       <c r="Y10">
         <v>1</v>
       </c>
+      <c r="Z10" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1381,26 +1450,23 @@
       <c r="O11" t="s">
         <v>58</v>
       </c>
-      <c r="P11" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11">
-        <v>1</v>
+      <c r="Q11" t="s">
+        <v>67</v>
       </c>
       <c r="R11" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T11" t="s">
         <v>3</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V11" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -1411,8 +1477,14 @@
       <c r="Y11">
         <v>1</v>
       </c>
+      <c r="Z11" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -1458,27 +1530,24 @@
       <c r="O12" t="s">
         <v>50</v>
       </c>
-      <c r="P12" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12">
-        <v>1</v>
+      <c r="Q12" t="s">
+        <v>67</v>
       </c>
       <c r="R12" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S12">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T12" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12">
+        <v>5</v>
+      </c>
+      <c r="V12" t="s">
         <v>48</v>
       </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-      <c r="V12" t="s">
-        <v>30</v>
-      </c>
       <c r="W12">
         <v>1</v>
       </c>
@@ -1488,8 +1557,14 @@
       <c r="Y12">
         <v>1</v>
       </c>
+      <c r="Z12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1535,27 +1610,24 @@
       <c r="O13" t="s">
         <v>50</v>
       </c>
-      <c r="P13" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13">
-        <v>1</v>
+      <c r="Q13" t="s">
+        <v>67</v>
       </c>
       <c r="R13" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T13" t="s">
+        <v>3</v>
+      </c>
+      <c r="U13">
+        <v>5</v>
+      </c>
+      <c r="V13" t="s">
         <v>48</v>
       </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-      <c r="V13" t="s">
-        <v>30</v>
-      </c>
       <c r="W13">
         <v>1</v>
       </c>
@@ -1565,8 +1637,14 @@
       <c r="Y13">
         <v>1</v>
       </c>
+      <c r="Z13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA13">
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -1612,27 +1690,24 @@
       <c r="O14" t="s">
         <v>50</v>
       </c>
-      <c r="P14" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14">
-        <v>1</v>
+      <c r="Q14" t="s">
+        <v>67</v>
       </c>
       <c r="R14" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T14" t="s">
+        <v>3</v>
+      </c>
+      <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14" t="s">
         <v>48</v>
       </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-      <c r="V14" t="s">
-        <v>30</v>
-      </c>
       <c r="W14">
         <v>1</v>
       </c>
@@ -1642,8 +1717,14 @@
       <c r="Y14">
         <v>1</v>
       </c>
+      <c r="Z14" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA14">
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1689,27 +1770,24 @@
       <c r="O15" t="s">
         <v>50</v>
       </c>
-      <c r="P15" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
+      <c r="Q15" t="s">
+        <v>67</v>
       </c>
       <c r="R15" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S15">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T15" t="s">
+        <v>3</v>
+      </c>
+      <c r="U15">
+        <v>5</v>
+      </c>
+      <c r="V15" t="s">
         <v>48</v>
       </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15" t="s">
-        <v>30</v>
-      </c>
       <c r="W15">
         <v>1</v>
       </c>
@@ -1719,8 +1797,14 @@
       <c r="Y15">
         <v>1</v>
       </c>
+      <c r="Z15" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -1758,35 +1842,32 @@
         <v>0</v>
       </c>
       <c r="M16" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="N16" t="s">
         <v>44</v>
       </c>
       <c r="O16" t="s">
-        <v>50</v>
-      </c>
-      <c r="P16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16">
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>67</v>
       </c>
       <c r="R16" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s">
+        <v>3</v>
+      </c>
+      <c r="U16">
+        <v>5</v>
+      </c>
+      <c r="V16" t="s">
         <v>48</v>
       </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-      <c r="V16" t="s">
-        <v>30</v>
-      </c>
       <c r="W16">
         <v>1</v>
       </c>
@@ -1796,8 +1877,14 @@
       <c r="Y16">
         <v>1</v>
       </c>
+      <c r="Z16" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA16">
+        <v>1</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -1835,35 +1922,32 @@
         <v>0</v>
       </c>
       <c r="M17" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
         <v>44</v>
       </c>
       <c r="O17" t="s">
-        <v>50</v>
-      </c>
-      <c r="P17" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
+        <v>69</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>67</v>
       </c>
       <c r="R17" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T17" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17">
+        <v>5</v>
+      </c>
+      <c r="V17" t="s">
         <v>48</v>
       </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-      <c r="V17" t="s">
-        <v>30</v>
-      </c>
       <c r="W17">
         <v>1</v>
       </c>
@@ -1873,8 +1957,14 @@
       <c r="Y17">
         <v>1</v>
       </c>
+      <c r="Z17" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -1920,27 +2010,24 @@
       <c r="O18" t="s">
         <v>50</v>
       </c>
-      <c r="P18" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18">
-        <v>1</v>
+      <c r="Q18" t="s">
+        <v>67</v>
       </c>
       <c r="R18" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T18" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18">
+        <v>5</v>
+      </c>
+      <c r="V18" t="s">
         <v>48</v>
       </c>
-      <c r="U18">
-        <v>1</v>
-      </c>
-      <c r="V18" t="s">
-        <v>30</v>
-      </c>
       <c r="W18">
         <v>1</v>
       </c>
@@ -1950,8 +2037,14 @@
       <c r="Y18">
         <v>1</v>
       </c>
+      <c r="Z18" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA18">
+        <v>1</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>22</v>
       </c>
@@ -1997,27 +2090,24 @@
       <c r="O19" t="s">
         <v>60</v>
       </c>
-      <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
+      <c r="Q19" t="s">
+        <v>67</v>
       </c>
       <c r="R19" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T19" t="s">
+        <v>3</v>
+      </c>
+      <c r="U19">
+        <v>5</v>
+      </c>
+      <c r="V19" t="s">
         <v>48</v>
       </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
-      <c r="V19" t="s">
-        <v>30</v>
-      </c>
       <c r="W19">
         <v>1</v>
       </c>
@@ -2027,8 +2117,14 @@
       <c r="Y19">
         <v>1</v>
       </c>
+      <c r="Z19" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA19">
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2072,29 +2168,26 @@
         <v>44</v>
       </c>
       <c r="O20" t="s">
-        <v>50</v>
-      </c>
-      <c r="P20" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
+        <v>74</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>67</v>
       </c>
       <c r="R20" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20">
+        <v>5</v>
+      </c>
+      <c r="V20" t="s">
         <v>48</v>
       </c>
-      <c r="U20">
-        <v>1</v>
-      </c>
-      <c r="V20" t="s">
-        <v>30</v>
-      </c>
       <c r="W20">
         <v>1</v>
       </c>
@@ -2104,8 +2197,14 @@
       <c r="Y20">
         <v>1</v>
       </c>
+      <c r="Z20" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA20">
+        <v>1</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2151,27 +2250,24 @@
       <c r="O21" t="s">
         <v>50</v>
       </c>
-      <c r="P21" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
+      <c r="Q21" t="s">
+        <v>67</v>
       </c>
       <c r="R21" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T21" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21">
+        <v>5</v>
+      </c>
+      <c r="V21" t="s">
         <v>48</v>
       </c>
-      <c r="U21">
-        <v>1</v>
-      </c>
-      <c r="V21" t="s">
-        <v>30</v>
-      </c>
       <c r="W21">
         <v>1</v>
       </c>
@@ -2181,8 +2277,14 @@
       <c r="Y21">
         <v>1</v>
       </c>
+      <c r="Z21" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA21">
+        <v>1</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -2228,27 +2330,24 @@
       <c r="O22" t="s">
         <v>50</v>
       </c>
-      <c r="P22" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
+      <c r="Q22" t="s">
+        <v>67</v>
       </c>
       <c r="R22" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T22" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22">
+        <v>5</v>
+      </c>
+      <c r="V22" t="s">
         <v>48</v>
       </c>
-      <c r="U22">
-        <v>1</v>
-      </c>
-      <c r="V22" t="s">
-        <v>30</v>
-      </c>
       <c r="W22">
         <v>1</v>
       </c>
@@ -2258,8 +2357,14 @@
       <c r="Y22">
         <v>1</v>
       </c>
+      <c r="Z22" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA22">
+        <v>1</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -2305,27 +2410,24 @@
       <c r="O23" t="s">
         <v>50</v>
       </c>
-      <c r="P23" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q23">
-        <v>1</v>
+      <c r="Q23" t="s">
+        <v>67</v>
       </c>
       <c r="R23" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23">
+        <v>5</v>
+      </c>
+      <c r="V23" t="s">
         <v>48</v>
       </c>
-      <c r="U23">
-        <v>1</v>
-      </c>
-      <c r="V23" t="s">
-        <v>30</v>
-      </c>
       <c r="W23">
         <v>1</v>
       </c>
@@ -2335,8 +2437,14 @@
       <c r="Y23">
         <v>1</v>
       </c>
+      <c r="Z23" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA23">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>27</v>
       </c>
@@ -2382,27 +2490,24 @@
       <c r="O24" t="s">
         <v>50</v>
       </c>
-      <c r="P24" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
+      <c r="Q24" t="s">
+        <v>67</v>
       </c>
       <c r="R24" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S24">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T24" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24">
+        <v>5</v>
+      </c>
+      <c r="V24" t="s">
         <v>48</v>
       </c>
-      <c r="U24">
-        <v>1</v>
-      </c>
-      <c r="V24" t="s">
-        <v>30</v>
-      </c>
       <c r="W24">
         <v>1</v>
       </c>
@@ -2412,8 +2517,14 @@
       <c r="Y24">
         <v>1</v>
       </c>
+      <c r="Z24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA24">
+        <v>1</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>28</v>
       </c>
@@ -2459,27 +2570,24 @@
       <c r="O25" t="s">
         <v>50</v>
       </c>
-      <c r="P25" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
+      <c r="Q25" t="s">
+        <v>67</v>
       </c>
       <c r="R25" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+      <c r="V25" t="s">
         <v>48</v>
       </c>
-      <c r="U25">
-        <v>1</v>
-      </c>
-      <c r="V25" t="s">
-        <v>30</v>
-      </c>
       <c r="W25">
         <v>1</v>
       </c>
@@ -2489,8 +2597,14 @@
       <c r="Y25">
         <v>1</v>
       </c>
+      <c r="Z25" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA25">
+        <v>1</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>29</v>
       </c>
@@ -2536,27 +2650,24 @@
       <c r="O26" t="s">
         <v>50</v>
       </c>
-      <c r="P26" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
+      <c r="Q26" t="s">
+        <v>67</v>
       </c>
       <c r="R26" t="s">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="S26">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+      <c r="V26" t="s">
         <v>48</v>
       </c>
-      <c r="U26">
-        <v>1</v>
-      </c>
-      <c r="V26" t="s">
-        <v>30</v>
-      </c>
       <c r="W26">
         <v>1</v>
       </c>
@@ -2564,6 +2675,12 @@
         <v>30</v>
       </c>
       <c r="Y26">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA26">
         <v>1</v>
       </c>
     </row>
